--- a/turn_signal_16/photoCreator.xlsx
+++ b/turn_signal_16/photoCreator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\JAAR3\CoCreation\arduino\turn_signal_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D6CF6F-43E0-4AED-AA62-E9C3C6B3837D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F7C32-3A9C-4134-BEE2-A8E2235A74D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5791BE92-E6BB-4916-BC90-A1EB8E9B8139}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,17 +411,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F195B-FBA8-4F62-BD22-521CDA6F1BD0}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="1" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="16" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
